--- a/RetoDePruebasManuales/Gestion de Incidentes.xlsx
+++ b/RetoDePruebasManuales/Gestion de Incidentes.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12210"/>
-  </bookViews>
   <sheets>
-    <sheet name="Incidente1" sheetId="1" r:id="rId1"/>
-    <sheet name="Incidente2" sheetId="2" r:id="rId2"/>
-    <sheet name="Incidente3" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="Incidente1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Incidente2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Incidente3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Incidente4" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Incidente5" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="132">
   <si>
     <t>GESTIÓN DE INCIDENTES</t>
   </si>
@@ -115,15 +114,13 @@
   </si>
   <si>
     <r>
+      <rPr/>
       <t xml:space="preserve">#Enlace para ver el documento en Google Docs: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/1cZ3dKVCK4ItgEpzL6uOBU6TDawAkUxvwIh2uJ0jU7n4/edit?usp=sharing</t>
     </r>
@@ -168,29 +165,18 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+      <rPr/>
       <t xml:space="preserve">URL: </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>http://webservices.oorsprong.org/websamples.countryinfo/CountryInfoService.wso?WSDL</t>
     </r>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+      <rPr/>
       <t xml:space="preserve"> </t>
     </r>
   </si>
@@ -257,6 +243,9 @@
   </si>
   <si>
     <t>Falla en el código de error de la respuesta del Servicio soap</t>
+  </si>
+  <si>
+    <t>Request Capital City</t>
   </si>
   <si>
     <t xml:space="preserve">Cuando se envía un request inválido en el servicio de convertir con código ISO de un pais, a su capital correspondientede &lt;12&gt; para buscar un mensaje de error 404 de "No encontrado"” Si visualiza un error que dice "Country not found in the database!”
@@ -268,6 +257,23 @@
 </t>
   </si>
   <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://webservices.oorsprong.org/websamples.countryinfo/CountryInfoService.wso?WSDL</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Convertir código ISO de país, a su capital, incorrecta
 </t>
   </si>
@@ -297,6 +303,9 @@
     <t>Página Web Novaventa</t>
   </si>
   <si>
+    <t>Módulo de registro</t>
+  </si>
+  <si>
     <t>Alto</t>
   </si>
   <si>
@@ -312,20 +321,14 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Acceder a URL de modulo registro </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>https://novaventa.com/registro/registro-cliente</t>
     </r>
@@ -347,20 +350,13 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+      <rPr/>
       <t xml:space="preserve">Ingresar al módulo de registro de la página de Novaventa </t>
     </r>
     <r>
       <rPr>
+        <color rgb="FF1155CC"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>https://novaventa.com/registro/registro-cliente</t>
     </r>
@@ -376,266 +372,259 @@
   </si>
   <si>
     <t>retorna un mensaje "Ingresa un nombre válido"</t>
+  </si>
+  <si>
+    <t>BUG_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falla en la redirección a un módulo de categoría anterior, desde el módulo de un producto </t>
+  </si>
+  <si>
+    <t>Aplazado</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">#Enlace para ver el documento en Google Docs: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://docs.google.com/spreadsheets/d/1cZ3dKVCK4ItgEpzL6uOBU6TDawAkUxvwIh2uJ0jU7n4/edit?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando nos encontramos en el módulo del detalle del producto "Airfryer Holstein X 4L" y queremos regresar al módulo de categoría anterior "Hogar Premium" arroja un mensaje error "404 El contenido al que intentas acceder no fue encontrado"
+</t>
+  </si>
+  <si>
+    <t>Categoría Hogar</t>
+  </si>
+  <si>
+    <t>Acceso a la página web de novaventa</t>
+  </si>
+  <si>
+    <t>Airfryer Holstein x 4L</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://webservices.oorsprong.org/websamples.countryinfo/CountryInfoService.wso?WSDL</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Navegar por las categorías</t>
+  </si>
+  <si>
+    <t>Ingresar a la página principal de novaventa URL https://www.novaventa.com/</t>
+  </si>
+  <si>
+    <t>Seleccionar la categoría "Hogar" desde la página principal</t>
+  </si>
+  <si>
+    <t>Seleccionar producto "Airfryer Holstein x 4L" para ser redireccionado al módulo de este producto</t>
+  </si>
+  <si>
+    <t>Selecciona el elemento del navegador anterior "Hogar Premium"</t>
+  </si>
+  <si>
+    <t>Arrojará un mensaje de error que dice "Lo sentimos, esta página no se encuentra disponible
+El contenido al que intentas acceder no fue encontrado"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería redirigirnos al módulo anterior de categoría "Hogar", ya que estabamos ahí inicialmente </t>
+  </si>
+  <si>
+    <t>Se visualiza un mensaje de error que dice "Lo sentimos, esta página no se encuentra disponible
+El contenido al que intentas acceder no fue encontrado"</t>
+  </si>
+  <si>
+    <t>Y retorna un código 404</t>
+  </si>
+  <si>
+    <t>BUG_005</t>
+  </si>
+  <si>
+    <t>Dirección No válida de Usuario Permitida</t>
+  </si>
+  <si>
+    <t>Módulo de registro de información de envío y facturación</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">#Enlace para ver el documento en Google Docs: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://docs.google.com/spreadsheets/d/1cZ3dKVCK4ItgEpzL6uOBU6TDawAkUxvwIh2uJ0jU7n4/edit?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando nos encontramos en el módulo de registro de información de envío y facturación en el campo obligatorio de "Dirección", el sistema nos permite ingresar una dirección errada, con datos no válidos.
+</t>
+  </si>
+  <si>
+    <t>FDFGSDFGDF34534654VBDFSGG456ÑÑÑ</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://webservices.oorsprong.org/websamples.countryinfo/CountryInfoService.wso?WSDL</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Prueba ingreso de datos de envío y facturación no válido</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Ingresar a la página principal de novaventa URL </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.novaventa.com/</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Iniciar sesión con una cuenta que no tenga dirección guardada o ir a editar la información de datos personales</t>
+  </si>
+  <si>
+    <t>Agregar productos al carrito de compras</t>
+  </si>
+  <si>
+    <t>Iniciar proceso de pago</t>
+  </si>
+  <si>
+    <t>En el campo de dirección ingresar cualquier dato inválido</t>
+  </si>
+  <si>
+    <t>Permitirá guardar los datos</t>
+  </si>
+  <si>
+    <t>Debería arrojarnos un error con código "400 bad request" y no permitir continuar con el proceso de pago</t>
+  </si>
+  <si>
+    <t>No debería guardar campos con datos no válidos</t>
+  </si>
+  <si>
+    <t>El módulo guarda la información con datos no válidos y permite continuar con el proceso de compra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="00\1"/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="001"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="13">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -655,227 +644,29 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="16">
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -885,7 +676,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -900,7 +690,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -912,39 +701,27 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -953,27 +730,16 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -982,691 +748,202 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="62">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1677,20 +954,16 @@
     <xdr:ext cx="8105775" cy="3676650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7654925"/>
-          <a:ext cx="8105775" cy="3676650"/>
-        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1703,7 +976,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1714,20 +987,16 @@
     <xdr:ext cx="11372850" cy="4381500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7524750"/>
-          <a:ext cx="11372850" cy="4381500"/>
-        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1740,7 +1009,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1751,20 +1020,110 @@
     <xdr:ext cx="5086350" cy="5848350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image3.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8229600"/>
-          <a:ext cx="5086350" cy="5848350"/>
-        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9077325" cy="4286250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image6.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8848725" cy="4819650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image5.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9867900" cy="5276850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1777,7 +1136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1967,35 +1326,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.5047619047619" customWidth="1"/>
-    <col min="2" max="2" width="25.752380952381" customWidth="1"/>
-    <col min="3" max="3" width="16.8761904761905" customWidth="1"/>
-    <col min="4" max="4" width="22.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.5047619047619" customWidth="1"/>
-    <col min="6" max="6" width="19.752380952381" customWidth="1"/>
-    <col min="7" max="7" width="18.8761904761905" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="19.5"/>
+    <col customWidth="1" min="2" max="2" width="25.75"/>
+    <col customWidth="1" min="3" max="3" width="16.88"/>
+    <col customWidth="1" min="4" max="4" width="22.13"/>
+    <col customWidth="1" min="5" max="5" width="17.5"/>
+    <col customWidth="1" min="6" max="6" width="19.75"/>
+    <col customWidth="1" min="7" max="7" width="18.88"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A1" s="50" t="s">
+    <row r="1" ht="23.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -2005,24 +1360,24 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="12.75" spans="1:7">
+    <row r="2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +1398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="12.75" spans="1:7">
+    <row r="4">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2064,12 +1419,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="12.75" spans="1:7">
+    <row r="5">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="14">
-        <v>45369</v>
+        <v>45369.0</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -2085,7 +1440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="12.75" spans="1:7">
+    <row r="6">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -2106,7 +1461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -2121,40 +1476,40 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="53" t="s">
+    <row r="8">
+      <c r="A8" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15" t="s">
+    <row r="9">
+      <c r="A9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" ht="12.75" spans="1:7">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" ht="38" customHeight="1" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="13" ht="12.75" spans="1:7">
-      <c r="A13" s="15" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -2166,8 +1521,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" ht="12.75" spans="1:7">
-      <c r="A14" s="19"/>
+    <row r="14">
+      <c r="A14" s="20"/>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
@@ -2177,91 +1532,91 @@
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" ht="12.75" spans="1:7">
-      <c r="A15" s="22"/>
-      <c r="B15" s="26"/>
+    <row r="15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="17" ht="12.75" spans="1:8">
-      <c r="A17" s="27" t="s">
+    <row r="17">
+      <c r="A17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="31" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="55"/>
-    </row>
-    <row r="18" ht="12.75" spans="1:8">
-      <c r="A18" s="31">
-        <v>1</v>
-      </c>
-      <c r="B18" s="32" t="s">
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="E18" s="33">
-        <v>1</v>
+      <c r="E18" s="35">
+        <v>1.0</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="56"/>
-    </row>
-    <row r="19" ht="12.75" spans="1:8">
-      <c r="A19" s="31">
-        <v>2</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20" ht="12.75" spans="1:8">
-      <c r="A20" s="31">
-        <v>3</v>
-      </c>
-      <c r="B20" s="49" t="s">
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="23" ht="12.75" spans="1:7">
+      <c r="H20" s="37"/>
+    </row>
+    <row r="23">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="25" ht="12.75" spans="1:7">
-      <c r="A25" s="57" t="s">
+    <row r="25">
+      <c r="A25" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="2"/>
@@ -2270,11 +1625,11 @@
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" ht="12.75" spans="2:2">
-      <c r="B26" s="41"/>
-    </row>
-    <row r="27" ht="12.75" spans="1:7">
-      <c r="A27" s="42" t="s">
+    <row r="26">
+      <c r="B26" s="43"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="2"/>
@@ -2284,11 +1639,11 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" ht="12.75" spans="1:7">
-      <c r="A28" s="43" t="s">
+    <row r="28">
+      <c r="A28" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="2"/>
@@ -2297,9 +1652,9 @@
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" ht="12.75" spans="1:7">
+    <row r="29">
       <c r="A29" s="11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>52</v>
@@ -2310,11 +1665,11 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" ht="12.75" spans="1:7">
+    <row r="30">
       <c r="A30" s="11">
-        <v>2</v>
-      </c>
-      <c r="B30" s="45" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="B30" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="2"/>
@@ -2323,9 +1678,9 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" ht="12.75" spans="1:7">
+    <row r="31">
       <c r="A31" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>54</v>
@@ -2336,9 +1691,9 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" ht="12.75" spans="1:7">
+    <row r="32">
       <c r="A32" s="11">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>55</v>
@@ -2349,9 +1704,9 @@
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" ht="12.75" spans="1:7">
+    <row r="33">
       <c r="A33" s="11">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>56</v>
@@ -2362,9 +1717,9 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" ht="12.75" spans="1:7">
+    <row r="34">
       <c r="A34" s="11">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>57</v>
@@ -2375,11 +1730,11 @@
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" ht="12.75" spans="2:2">
-      <c r="B35" s="46"/>
-    </row>
-    <row r="37" ht="12.75" spans="1:7">
-      <c r="A37" s="47" t="s">
+    <row r="35">
+      <c r="B35" s="47"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -2391,8 +1746,8 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" ht="12.75" spans="1:7">
-      <c r="A38" s="22"/>
+    <row r="38">
+      <c r="A38" s="23"/>
       <c r="B38" s="12" t="s">
         <v>60</v>
       </c>
@@ -2402,11 +1757,11 @@
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" ht="12.75" spans="1:7">
-      <c r="A39" s="47" t="s">
+    <row r="39">
+      <c r="A39" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="42" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="2"/>
@@ -2415,9 +1770,9 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" ht="12.75" spans="1:7">
-      <c r="A40" s="22"/>
-      <c r="B40" s="58" t="s">
+    <row r="40">
+      <c r="A40" s="23"/>
+      <c r="B40" s="42" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="2"/>
@@ -2426,16 +1781,16 @@
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="42" ht="12.75" spans="1:1">
-      <c r="A42" s="48" t="s">
+    <row r="42">
+      <c r="A42" s="49" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:1">
-      <c r="A66" s="59"/>
-    </row>
-    <row r="67" ht="14.25" spans="1:1">
-      <c r="A67" s="59"/>
+    <row r="66">
+      <c r="A66" s="50"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -2446,94 +1801,90 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B9:G11"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Jefe,Líder QA,Líder Desarrollo"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Design,Develompent,Testing,UAT,Post-Production"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5">
-      <formula1>"System,Unit,Acceptance"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Deployment,Design,Development,Requirements,Testing 1,Local,Testing 2,Production"</formula1>
-    </dataValidation>
+  <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D6">
       <formula1>"Pendiente,En progreso,Solucionado,Duplicado,Reabierto,Aplazado,Rechazado"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6">
       <formula1>"Ambiente,Compatibilidad,Desempeño,Documentación,Fiabilidad,Interfaz Gráfica de Usuario,Mantenibilidad,Parametrización,Seguridad,Usabilidad,Funcionalidad"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7">
+      <formula1>"Low,Medium,High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5">
+      <formula1>"System,Unit,Acceptance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3">
+      <formula1>"Jefe,Líder QA,Líder Desarrollo"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7">
       <formula1>"Crítico,Alto,Medio,Bajo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Low,Medium,High"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
+      <formula1>"Design,Develompent,Testing,UAT,Post-Production"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Deployment,Design,Development,Requirements,Testing 1,Local,Testing 2,Production"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId2" display="#Enlace para ver el documento en Google Docs: https://docs.google.com/spreadsheets/d/1cZ3dKVCK4ItgEpzL6uOBU6TDawAkUxvwIh2uJ0jU7n4/edit?usp=sharing"/>
-    <hyperlink ref="B20" r:id="rId3" display="URL: http://webservices.oorsprong.org/websamples.countryinfo/CountryInfoService.wso?WSDL "/>
+    <hyperlink r:id="rId1" ref="A8"/>
+    <hyperlink r:id="rId2" ref="B20"/>
   </hyperlinks>
-  <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="6" width="18.3809523809524" customWidth="1"/>
-    <col min="7" max="7" width="26.6285714285714" customWidth="1"/>
+    <col customWidth="1" min="1" max="6" width="18.38"/>
+    <col customWidth="1" min="7" max="7" width="26.63"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -2543,24 +1894,24 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="52" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="53" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -2581,7 +1932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="12.75" spans="1:7">
+    <row r="4">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2592,7 +1943,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="10" t="s">
@@ -2602,12 +1953,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="14">
-        <v>45369</v>
+        <v>45369.0</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -2623,7 +1974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="12.75" spans="1:7">
+    <row r="6">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -2644,7 +1995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="12.75" spans="1:5">
+    <row r="7">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -2659,35 +2010,35 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="9" ht="12.75" spans="1:7">
-      <c r="A9" s="15" t="s">
+    <row r="9">
+      <c r="A9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" ht="12.75" spans="1:7">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" ht="25.5" customHeight="1" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="13" ht="12.75" spans="1:7">
-      <c r="A13" s="15" t="s">
+      <c r="B9" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -2699,8 +2050,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" ht="12.75" spans="1:7">
-      <c r="A14" s="19"/>
+    <row r="14">
+      <c r="A14" s="20"/>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
@@ -2710,88 +2061,88 @@
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" ht="12.75" spans="1:7">
-      <c r="A15" s="22"/>
-      <c r="B15" s="26"/>
+    <row r="15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="17" ht="12.75" spans="1:7">
-      <c r="A17" s="27" t="s">
+    <row r="17">
+      <c r="A17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="31" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="31">
-        <v>1</v>
-      </c>
-      <c r="B18" s="32" t="s">
+    <row r="18">
+      <c r="A18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="E18" s="33">
-        <v>1</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>68</v>
+      <c r="E18" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" ht="12.75" spans="1:7">
-      <c r="A19" s="31">
-        <v>2</v>
-      </c>
-      <c r="B19" s="32" t="s">
+    <row r="19">
+      <c r="A19" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" ht="12.75" spans="1:7">
-      <c r="A20" s="31">
-        <v>3</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>45</v>
+    <row r="20">
+      <c r="A20" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="23" ht="12.75" spans="1:7">
+    <row r="23">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="39" t="s">
+    <row r="25">
+      <c r="A25" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>69</v>
+      <c r="B25" s="57" t="s">
+        <v>71</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2799,11 +2150,11 @@
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" ht="12.75" spans="2:2">
-      <c r="B26" s="41"/>
-    </row>
-    <row r="27" ht="12.75" spans="1:7">
-      <c r="A27" s="42" t="s">
+    <row r="26">
+      <c r="B26" s="43"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="2"/>
@@ -2813,11 +2164,11 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" ht="12.75" spans="1:7">
-      <c r="A28" s="43" t="s">
+    <row r="28">
+      <c r="A28" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="2"/>
@@ -2826,9 +2177,9 @@
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" ht="12.75" spans="1:7">
+    <row r="29">
       <c r="A29" s="11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>52</v>
@@ -2839,11 +2190,11 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" ht="12.75" spans="1:7">
+    <row r="30">
       <c r="A30" s="11">
-        <v>2</v>
-      </c>
-      <c r="B30" s="45" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="B30" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="2"/>
@@ -2852,12 +2203,12 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" ht="14.25" spans="1:7">
+    <row r="31">
       <c r="A31" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2865,12 +2216,12 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" ht="14.25" spans="1:7">
+    <row r="32">
       <c r="A32" s="11">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2878,9 +2229,9 @@
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" ht="12.75" spans="1:7">
+    <row r="33">
       <c r="A33" s="11">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>56</v>
@@ -2891,12 +2242,12 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" ht="14.25" spans="1:7">
+    <row r="34">
       <c r="A34" s="11">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2904,15 +2255,15 @@
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" ht="12.75" spans="2:2">
-      <c r="B35" s="46"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="47" t="s">
+    <row r="35">
+      <c r="B35" s="47"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2920,8 +2271,8 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="22"/>
+    <row r="38">
+      <c r="A38" s="23"/>
       <c r="B38" s="9"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2929,12 +2280,12 @@
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="47" t="s">
+    <row r="39">
+      <c r="A39" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>74</v>
+      <c r="B39" s="57" t="s">
+        <v>76</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2942,17 +2293,17 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="22"/>
-      <c r="B40" s="40"/>
+    <row r="40">
+      <c r="A40" s="23"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="42" ht="12.75" spans="1:1">
-      <c r="A42" s="48" t="s">
+    <row r="42">
+      <c r="A42" s="49" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2965,93 +2316,88 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B9:G11"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Jefe,Líder QA,Líder Desarrollo"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Design,Develompent,Testing,UAT,Post-Production"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5">
-      <formula1>"System,Unit,Acceptance"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Deployment,Design,Development,Requirements,Testing 1,Local,Testing 2,Production"</formula1>
-    </dataValidation>
+  <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D6">
       <formula1>"Pendiente,En progreso,Solucionado,Duplicado,Reabierto,Aplazado,Rechazado"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6">
       <formula1>"Ambiente,Compatibilidad,Desempeño,Documentación,Fiabilidad,Interfaz Gráfica de Usuario,Mantenibilidad,Parametrización,Seguridad,Usabilidad,Funcionalidad"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7">
+      <formula1>"Low,Medium,High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5">
+      <formula1>"System,Unit,Acceptance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3">
+      <formula1>"Jefe,Líder QA,Líder Desarrollo"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7">
       <formula1>"Crítico,Alto,Medio,Bajo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Low,Medium,High"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
+      <formula1>"Design,Develompent,Testing,UAT,Post-Production"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Deployment,Design,Development,Requirements,Testing 1,Local,Testing 2,Production"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId2" display="URL: http://webservices.oorsprong.org/websamples.countryinfo/CountryInfoService.wso?WSDL "/>
+    <hyperlink r:id="rId1" ref="B20"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="28.3809523809524" customWidth="1"/>
-    <col min="3" max="3" width="31.5047619047619" customWidth="1"/>
-    <col min="4" max="7" width="28.3809523809524" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="28.38"/>
+    <col customWidth="1" min="3" max="3" width="31.5"/>
+    <col customWidth="1" min="4" max="7" width="28.38"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -3061,24 +2407,24 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>75</v>
+      <c r="B2" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>76</v>
+      <c r="D2" s="53" t="s">
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -3099,18 +2445,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="12.75" spans="1:7">
+    <row r="4">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="10" t="s">
@@ -3120,12 +2466,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="14">
-        <v>45370</v>
+        <v>45370.0</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -3141,7 +2487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="12.75" spans="1:7">
+    <row r="6">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -3162,12 +2508,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="12.75" spans="1:5">
+    <row r="7">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
@@ -3177,39 +2523,39 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="9" ht="12.75" spans="1:7">
-      <c r="A9" s="15" t="s">
+    <row r="9">
+      <c r="A9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" ht="12.75" spans="1:7">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" ht="35.25" customHeight="1" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="13" ht="12.75" spans="1:7">
-      <c r="A13" s="15" t="s">
+      <c r="B9" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" ht="35.25" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3217,8 +2563,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" ht="12.75" spans="1:7">
-      <c r="A14" s="19"/>
+    <row r="14">
+      <c r="A14" s="20"/>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
@@ -3228,105 +2574,105 @@
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" ht="12.75" spans="1:7">
-      <c r="A15" s="22"/>
-      <c r="B15" s="26"/>
+    <row r="15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="17" ht="12.75" spans="1:7">
-      <c r="A17" s="27" t="s">
+    <row r="17">
+      <c r="A17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="31" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="31">
-        <v>1</v>
-      </c>
-      <c r="B18" s="32" t="s">
+    <row r="18">
+      <c r="A18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="E18" s="33">
-        <v>1</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>81</v>
+      <c r="E18" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" ht="12.75" spans="1:7">
-      <c r="A19" s="31">
-        <v>2</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>82</v>
+    <row r="19">
+      <c r="A19" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>85</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="E19" s="33">
-        <v>2</v>
+      <c r="E19" s="35">
+        <v>2.0</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" ht="12.75" spans="1:7">
-      <c r="A20" s="31">
-        <v>3</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>84</v>
+    <row r="20">
+      <c r="A20" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>87</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="E20" s="33">
-        <v>3</v>
+      <c r="E20" s="35">
+        <v>3.0</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" ht="12.75" spans="5:7">
-      <c r="E21" s="33">
-        <v>4</v>
+    <row r="21">
+      <c r="E21" s="35">
+        <v>4.0</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="23" ht="12.75" spans="1:7">
+    <row r="23">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="39" t="s">
+    <row r="25">
+      <c r="A25" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>87</v>
+      <c r="B25" s="57" t="s">
+        <v>90</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3334,11 +2680,11 @@
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" ht="12.75" spans="2:2">
-      <c r="B26" s="41"/>
-    </row>
-    <row r="27" ht="12.75" spans="1:7">
-      <c r="A27" s="42" t="s">
+    <row r="26">
+      <c r="B26" s="43"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="2"/>
@@ -3348,11 +2694,11 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" ht="12.75" spans="1:7">
-      <c r="A28" s="43" t="s">
+    <row r="28">
+      <c r="A28" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="2"/>
@@ -3361,12 +2707,12 @@
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" ht="12.75" spans="1:7">
+    <row r="29">
       <c r="A29" s="11">
-        <v>1</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>88</v>
+        <v>1.0</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>91</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3374,12 +2720,12 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" ht="12.75" spans="1:7">
+    <row r="30">
       <c r="A30" s="11">
-        <v>2</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>89</v>
+        <v>2.0</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3387,12 +2733,12 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" ht="14.25" spans="1:7">
+    <row r="31">
       <c r="A31" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3400,7 +2746,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" ht="14.25" spans="1:7">
+    <row r="32">
       <c r="A32" s="11"/>
       <c r="B32" s="9"/>
       <c r="C32" s="2"/>
@@ -3409,7 +2755,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" ht="12.75" spans="1:7">
+    <row r="33">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="2"/>
@@ -3418,7 +2764,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" ht="14.25" spans="1:7">
+    <row r="34">
       <c r="A34" s="11"/>
       <c r="B34" s="9"/>
       <c r="C34" s="2"/>
@@ -3427,15 +2773,15 @@
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" ht="12.75" spans="2:2">
-      <c r="B35" s="46"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:7">
-      <c r="A37" s="47" t="s">
+    <row r="35">
+      <c r="B35" s="47"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3443,8 +2789,8 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" ht="14.25" spans="1:7">
-      <c r="A38" s="22"/>
+    <row r="38">
+      <c r="A38" s="23"/>
       <c r="B38" s="9"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3452,12 +2798,12 @@
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="47" t="s">
+    <row r="39">
+      <c r="A39" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>92</v>
+      <c r="B39" s="57" t="s">
+        <v>95</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3465,17 +2811,17 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="22"/>
-      <c r="B40" s="40"/>
+    <row r="40">
+      <c r="A40" s="23"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="42" ht="12.75" spans="1:1">
-      <c r="A42" s="48" t="s">
+    <row r="42">
+      <c r="A42" s="49" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3488,21 +2834,30 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B30:G30"/>
@@ -3510,50 +2865,1112 @@
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B9:G11"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Jefe,Líder QA,Líder Desarrollo"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Design,Develompent,Testing,UAT,Post-Production"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5">
-      <formula1>"System,Unit,Acceptance"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Deployment,Design,Development,Requirements,Testing 1,Local,Testing 2,Production"</formula1>
-    </dataValidation>
+  <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D6">
       <formula1>"Pendiente,En progreso,Solucionado,Duplicado,Reabierto,Aplazado,Rechazado"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6">
       <formula1>"Ambiente,Compatibilidad,Desempeño,Documentación,Fiabilidad,Interfaz Gráfica de Usuario,Mantenibilidad,Parametrización,Seguridad,Usabilidad,Funcionalidad"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7">
+      <formula1>"Low,Medium,High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5">
+      <formula1>"System,Unit,Acceptance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3">
+      <formula1>"Jefe,Líder QA,Líder Desarrollo"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7">
       <formula1>"Crítico,Alto,Medio,Bajo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
+      <formula1>"Design,Develompent,Testing,UAT,Post-Production"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Deployment,Design,Development,Requirements,Testing 1,Local,Testing 2,Production"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B19"/>
+    <hyperlink r:id="rId2" ref="B29"/>
+  </hyperlinks>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.5"/>
+    <col customWidth="1" min="2" max="2" width="25.75"/>
+    <col customWidth="1" min="3" max="3" width="16.88"/>
+    <col customWidth="1" min="4" max="4" width="22.13"/>
+    <col customWidth="1" min="5" max="5" width="17.5"/>
+    <col customWidth="1" min="6" max="6" width="19.75"/>
+    <col customWidth="1" min="7" max="7" width="18.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14">
+        <v>45370.0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20"/>
+      <c r="B14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="E17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="E18" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="E19" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="43"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="47"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="23"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="23"/>
+      <c r="B40" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="50"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A37:A38"/>
+  </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D6">
+      <formula1>"Pendiente,En progreso,Solucionado,Duplicado,Reabierto,Aplazado,Rechazado"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6">
+      <formula1>"Ambiente,Compatibilidad,Desempeño,Documentación,Fiabilidad,Interfaz Gráfica de Usuario,Mantenibilidad,Parametrización,Seguridad,Usabilidad,Funcionalidad"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5">
+      <formula1>"System,Unit,Acceptance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3">
+      <formula1>"Jefe,Líder QA,Líder Desarrollo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7">
+      <formula1>"Crítico,Alto,Medio,Bajo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
+      <formula1>"Design,Develompent,Testing,UAT,Post-Production"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Deployment,Design,Development,Requirements,Testing 1,Local,Testing 2,Production"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId2" display="Acceder a URL de modulo registro https://novaventa.com/registro/registro-cliente"/>
-    <hyperlink ref="B29" r:id="rId2" display="Ingresar al módulo de registro de la página de Novaventa https://novaventa.com/registro/registro-cliente"/>
+    <hyperlink r:id="rId1" ref="A8"/>
+    <hyperlink r:id="rId2" ref="B20"/>
   </hyperlinks>
-  <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.5"/>
+    <col customWidth="1" min="2" max="2" width="25.75"/>
+    <col customWidth="1" min="3" max="3" width="16.88"/>
+    <col customWidth="1" min="4" max="4" width="22.13"/>
+    <col customWidth="1" min="5" max="5" width="20.5"/>
+    <col customWidth="1" min="6" max="6" width="19.75"/>
+    <col customWidth="1" min="7" max="7" width="18.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14">
+        <v>45370.0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20"/>
+      <c r="B14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="E17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="E18" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="43"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="47"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="23"/>
+      <c r="B38" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="23"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="61"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="50"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A37:A38"/>
+  </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D6">
+      <formula1>"Pendiente,En progreso,Solucionado,Duplicado,Reabierto,Aplazado,Rechazado"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6">
+      <formula1>"Ambiente,Compatibilidad,Desempeño,Documentación,Fiabilidad,Interfaz Gráfica de Usuario,Mantenibilidad,Parametrización,Seguridad,Usabilidad,Funcionalidad"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7">
+      <formula1>"Low,Medium,High"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5">
+      <formula1>"System,Unit,Acceptance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3">
+      <formula1>"Jefe,Líder QA,Líder Desarrollo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7">
+      <formula1>"Crítico,Alto,Medio,Bajo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
+      <formula1>"Design,Develompent,Testing,UAT,Post-Production"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Deployment,Design,Development,Requirements,Testing 1,Local,Testing 2,Production"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A8"/>
+    <hyperlink r:id="rId2" ref="B20"/>
+    <hyperlink r:id="rId3" ref="B29"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>